--- a/wtf-execl-transfrom/source/fight/output1.xlsx
+++ b/wtf-execl-transfrom/source/fight/output1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wtf\wtf-execl-transfrom\source\fight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bieren\taekwondo\WTF-Trans\WTF\wtf-execl-transfrom\source\fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B4111F-5BF3-479D-9ED9-C8235AF65098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDABBED6-D5B7-4D82-B9DD-1B152B1E4F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{059B816E-B382-47CF-8510-32902495DA22}"/>
+    <workbookView xWindow="7300" yWindow="650" windowWidth="13150" windowHeight="15370" xr2:uid="{059B816E-B382-47CF-8510-32902495DA22}"/>
   </bookViews>
   <sheets>
     <sheet name="跆拳道test" sheetId="1" r:id="rId1"/>
@@ -2224,15 +2224,15 @@
   <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -8014,7 +8014,7 @@
       </c>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -9027,7 +9027,7 @@
       </c>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>212</v>
       </c>
